--- a/数据字典问题/数据字典/投资关系.xlsx
+++ b/数据字典问题/数据字典/投资关系.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
